--- a/data_xlsx/中国_金融机构_新增人民币存款_当月值.xlsx
+++ b/data_xlsx/中国_金融机构_新增人民币存款_当月值.xlsx
@@ -1906,8 +1906,16 @@
         <v>14600.0</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="3" t="inlineStr">
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>45107.0</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>37100.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/中国_金融机构_新增人民币存款_当月值.xlsx
+++ b/data_xlsx/中国_金融机构_新增人民币存款_当月值.xlsx
@@ -1914,8 +1914,16 @@
         <v>37100.0</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="3" t="inlineStr">
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>-11200.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
